--- a/config_ios/game_module_config.xlsx
+++ b/config_ios/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="922">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -2987,10 +2987,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>by3d_zdkp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼自动开炮</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3107,12 +3103,854 @@
     <t>SYSFishFarmSimplicityManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>by3d_zdkp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_change_head_and_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置头像和改变昵称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSChangeHeadAndNameManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ad_mfcj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告点4：免费抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DADMFCJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_jfcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_JFCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_lgfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_LGFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动模板1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_wyzjf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赚积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_024_WYZJFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ad_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DADFishManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠→金牛幸运宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_LXDHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_xlxphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_XLXPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_czlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiftCZLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_fcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防沉迷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFCMManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_yk_gz</t>
+  </si>
+  <si>
+    <t>活动：贵族月卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_009_YKGZManager</t>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+  </si>
+  <si>
+    <t>新月卡</t>
+  </si>
+  <si>
+    <t>Sys_011_YuekaManager</t>
+  </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_BBLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_xrcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_XRCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_ZABDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_LMLHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_sgxxlyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_SGXXLYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTGXTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_JQSHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_mfflq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_MFFLQManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_mfhf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_MFHFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_xycd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_XYCDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_ljyjcfk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPL_LJYJCFKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月28日23:59:59</t>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二→庆典礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqflManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_WXHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_GQFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星掉落脚本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_GQKLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_hd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrqtl_old</t>
+  </si>
+  <si>
+    <t>新人七天乐（老版）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRQTLManager_Old</t>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_jchd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DJCHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_hqjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DHQJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月23日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_by3d_shop_enter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼商城入口(获取金币中)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSBY3DShopManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签→元旦活动→欢乐庆典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--兑换模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--排行榜模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_013_ffyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅小游戏版块上浮弹幕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_013_FFYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（畅玩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_ZP1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用活动--礼包模板（感恩礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_LB1Manager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_CZZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3182,8 +4020,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3199,6 +4056,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,7 +4115,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3288,6 +4169,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3566,13 +4492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4349,7 +5275,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>90</v>
@@ -5049,7 +5975,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>167</v>
@@ -5257,7 +6183,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>189</v>
@@ -5907,7 +6833,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>262</v>
@@ -6222,7 +7148,7 @@
         <v>297</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>298</v>
@@ -8233,7 +9159,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>515</v>
@@ -9742,13 +10668,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C244" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="D244" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -9768,13 +10694,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -9794,13 +10720,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -9820,13 +10746,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -9846,13 +10772,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -9865,6 +10791,1706 @@
       </c>
       <c r="I248" s="7" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="18">
+        <v>248</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="18">
+        <v>249</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="18">
+        <v>250</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="18">
+        <v>251</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C252" t="s">
+        <v>730</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="18">
+        <v>252</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C253" t="s">
+        <v>733</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="18">
+        <v>253</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="18">
+        <v>254</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="18">
+        <v>255</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E256" s="20">
+        <v>0</v>
+      </c>
+      <c r="F256" s="20">
+        <v>0</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0</v>
+      </c>
+      <c r="I256" s="21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="18">
+        <v>256</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E257" s="23">
+        <v>0</v>
+      </c>
+      <c r="F257" s="23">
+        <v>0</v>
+      </c>
+      <c r="G257" s="23">
+        <v>0</v>
+      </c>
+      <c r="I257" s="22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="18">
+        <v>257</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="E258" s="23">
+        <v>0</v>
+      </c>
+      <c r="F258" s="23">
+        <v>0</v>
+      </c>
+      <c r="G258" s="23">
+        <v>0</v>
+      </c>
+      <c r="I258" s="22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="18">
+        <v>258</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="E259" s="23">
+        <v>1</v>
+      </c>
+      <c r="F259" s="23">
+        <v>1</v>
+      </c>
+      <c r="G259" s="23">
+        <v>1</v>
+      </c>
+      <c r="I259" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="18">
+        <v>259</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="E260" s="23">
+        <v>0</v>
+      </c>
+      <c r="F260" s="23">
+        <v>1</v>
+      </c>
+      <c r="G260" s="23">
+        <v>1</v>
+      </c>
+      <c r="I260" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="18">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>757</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D261" t="s">
+        <v>759</v>
+      </c>
+      <c r="E261" s="4">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="I261" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="18">
+        <v>261</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="I262" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="18">
+        <v>262</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="E263" s="23">
+        <v>0</v>
+      </c>
+      <c r="F263" s="23">
+        <v>0</v>
+      </c>
+      <c r="G263" s="23">
+        <v>0</v>
+      </c>
+      <c r="I263" s="22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="18">
+        <v>263</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="E264" s="23">
+        <v>0</v>
+      </c>
+      <c r="F264" s="23">
+        <v>0</v>
+      </c>
+      <c r="G264" s="23">
+        <v>0</v>
+      </c>
+      <c r="I264" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="18">
+        <v>264</v>
+      </c>
+      <c r="B265" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="E265" s="23">
+        <v>0</v>
+      </c>
+      <c r="F265" s="23">
+        <v>0</v>
+      </c>
+      <c r="G265" s="23">
+        <v>0</v>
+      </c>
+      <c r="I265" s="23" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="18">
+        <v>265</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D266" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="E266" s="23">
+        <v>0</v>
+      </c>
+      <c r="F266" s="23">
+        <v>0</v>
+      </c>
+      <c r="G266" s="23">
+        <v>0</v>
+      </c>
+      <c r="I266" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="18">
+        <v>266</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="D267" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="E267" s="23">
+        <v>0</v>
+      </c>
+      <c r="F267" s="23">
+        <v>0</v>
+      </c>
+      <c r="G267" s="23">
+        <v>0</v>
+      </c>
+      <c r="I267" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="18">
+        <v>267</v>
+      </c>
+      <c r="B268" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D268" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="E268" s="23">
+        <v>0</v>
+      </c>
+      <c r="F268" s="23">
+        <v>0</v>
+      </c>
+      <c r="G268" s="23">
+        <v>0</v>
+      </c>
+      <c r="I268" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="18">
+        <v>268</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="D269" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="E269" s="23">
+        <v>0</v>
+      </c>
+      <c r="F269" s="23">
+        <v>0</v>
+      </c>
+      <c r="G269" s="23">
+        <v>0</v>
+      </c>
+      <c r="H269" s="23"/>
+      <c r="I269" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="18">
+        <v>269</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D270" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="E270" s="23">
+        <v>0</v>
+      </c>
+      <c r="F270" s="23">
+        <v>0</v>
+      </c>
+      <c r="G270" s="23">
+        <v>0</v>
+      </c>
+      <c r="H270" s="23"/>
+      <c r="I270" s="25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="18">
+        <v>270</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="D271" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="E271" s="23">
+        <v>0</v>
+      </c>
+      <c r="F271" s="23">
+        <v>0</v>
+      </c>
+      <c r="G271" s="23">
+        <v>0</v>
+      </c>
+      <c r="H271" s="23"/>
+      <c r="I271" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="18">
+        <v>271</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="E272" s="23">
+        <v>0</v>
+      </c>
+      <c r="F272" s="23">
+        <v>0</v>
+      </c>
+      <c r="G272" s="23">
+        <v>0</v>
+      </c>
+      <c r="H272" s="23"/>
+      <c r="I272" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="18">
+        <v>272</v>
+      </c>
+      <c r="B273" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="D273" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="E273" s="23">
+        <v>0</v>
+      </c>
+      <c r="F273" s="23">
+        <v>0</v>
+      </c>
+      <c r="G273" s="23">
+        <v>0</v>
+      </c>
+      <c r="H273" s="23"/>
+      <c r="I273" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="18">
+        <v>273</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="D274" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="E274" s="23">
+        <v>0</v>
+      </c>
+      <c r="F274" s="23">
+        <v>0</v>
+      </c>
+      <c r="G274" s="23">
+        <v>0</v>
+      </c>
+      <c r="H274" s="23"/>
+      <c r="I274" s="25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A275" s="18">
+        <v>274</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="D275" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="E275" s="23">
+        <v>0</v>
+      </c>
+      <c r="F275" s="23">
+        <v>0</v>
+      </c>
+      <c r="G275" s="23">
+        <v>0</v>
+      </c>
+      <c r="H275" s="23"/>
+      <c r="I275" s="26" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="18">
+        <v>275</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="I276" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="18">
+        <v>276</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="D277" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="E277" s="19">
+        <v>0</v>
+      </c>
+      <c r="F277" s="19">
+        <v>0</v>
+      </c>
+      <c r="G277" s="19">
+        <v>0</v>
+      </c>
+      <c r="H277" s="19"/>
+      <c r="I277" s="19" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="18">
+        <v>277</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="D278" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="I278" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="18">
+        <v>278</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="18">
+        <v>279</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="D280" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="18">
+        <v>280</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="18">
+        <v>281</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="D282" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="25" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="18">
+        <v>282</v>
+      </c>
+      <c r="B283" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="D283" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="18">
+        <v>283</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="D284" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="E284" s="23">
+        <v>0</v>
+      </c>
+      <c r="F284" s="23">
+        <v>0</v>
+      </c>
+      <c r="G284" s="23">
+        <v>0</v>
+      </c>
+      <c r="I284" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="18">
+        <v>284</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="18">
+        <v>285</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="18">
+        <v>286</v>
+      </c>
+      <c r="B287" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="D287" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="18">
+        <v>287</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="E288" s="23">
+        <v>0</v>
+      </c>
+      <c r="F288" s="23">
+        <v>0</v>
+      </c>
+      <c r="G288" s="23">
+        <v>0</v>
+      </c>
+      <c r="H288" s="23"/>
+      <c r="I288" s="22" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="18">
+        <v>288</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="I289" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="18">
+        <v>289</v>
+      </c>
+      <c r="B290" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="D290" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="18">
+        <v>290</v>
+      </c>
+      <c r="B291" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="D291" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="18">
+        <v>291</v>
+      </c>
+      <c r="B292" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="D292" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="18">
+        <v>292</v>
+      </c>
+      <c r="B293" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="D293" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="18">
+        <v>293</v>
+      </c>
+      <c r="B294" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="D294" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="I294" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="18">
+        <v>294</v>
+      </c>
+      <c r="B295" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="D295" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="18">
+        <v>295</v>
+      </c>
+      <c r="B296" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D296" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="22" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="18">
+        <v>296</v>
+      </c>
+      <c r="B297" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="D297" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="18">
+        <v>297</v>
+      </c>
+      <c r="B298" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="D298" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="22" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="18">
+        <v>298</v>
+      </c>
+      <c r="B299" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="D299" s="30" t="s">
+        <v>876</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="I299" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="18">
+        <v>299</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="E300" s="23">
+        <v>0</v>
+      </c>
+      <c r="F300" s="23">
+        <v>0</v>
+      </c>
+      <c r="G300" s="23">
+        <v>0</v>
+      </c>
+      <c r="H300" s="23"/>
+      <c r="I300" s="25" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="18">
+        <v>300</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="E301" s="23">
+        <v>0</v>
+      </c>
+      <c r="F301" s="23">
+        <v>0</v>
+      </c>
+      <c r="G301" s="23">
+        <v>0</v>
+      </c>
+      <c r="H301" s="23"/>
+      <c r="I301" s="25" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="18">
+        <v>301</v>
+      </c>
+      <c r="B302" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D302" s="20"/>
+      <c r="E302" s="20">
+        <v>0</v>
+      </c>
+      <c r="F302" s="20">
+        <v>0</v>
+      </c>
+      <c r="G302" s="20">
+        <v>0</v>
+      </c>
+      <c r="H302" s="20"/>
+      <c r="I302" s="19" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="18">
+        <v>302</v>
+      </c>
+      <c r="B303" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="E303" s="23">
+        <v>0</v>
+      </c>
+      <c r="F303" s="23">
+        <v>0</v>
+      </c>
+      <c r="G303" s="23">
+        <v>0</v>
+      </c>
+      <c r="H303" s="23"/>
+      <c r="I303" s="25" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="18">
+        <v>303</v>
+      </c>
+      <c r="B304" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="E304" s="23">
+        <v>0</v>
+      </c>
+      <c r="F304" s="23">
+        <v>0</v>
+      </c>
+      <c r="G304" s="23">
+        <v>0</v>
+      </c>
+      <c r="H304" s="23"/>
+      <c r="I304" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="18">
+        <v>304</v>
+      </c>
+      <c r="B305" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="C305" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="D305" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="E305" s="20">
+        <v>0</v>
+      </c>
+      <c r="F305" s="20">
+        <v>0</v>
+      </c>
+      <c r="G305" s="20">
+        <v>0</v>
+      </c>
+      <c r="H305" s="20"/>
+      <c r="I305" s="19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="18">
+        <v>305</v>
+      </c>
+      <c r="B306" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C306" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="D306" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="E306" s="20">
+        <v>0</v>
+      </c>
+      <c r="F306" s="20">
+        <v>0</v>
+      </c>
+      <c r="G306" s="20">
+        <v>0</v>
+      </c>
+      <c r="H306" s="20"/>
+      <c r="I306" s="19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="18">
+        <v>306</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="E307" s="23">
+        <v>0</v>
+      </c>
+      <c r="F307" s="23">
+        <v>0</v>
+      </c>
+      <c r="G307" s="23">
+        <v>0</v>
+      </c>
+      <c r="H307" s="23"/>
+      <c r="I307" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="18">
+        <v>307</v>
+      </c>
+      <c r="B308" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="C308" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="E308" s="23">
+        <v>0</v>
+      </c>
+      <c r="F308" s="23">
+        <v>0</v>
+      </c>
+      <c r="G308" s="23">
+        <v>0</v>
+      </c>
+      <c r="H308" s="23"/>
+      <c r="I308" s="25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="18">
+        <v>308</v>
+      </c>
+      <c r="B309" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="E309" s="23">
+        <v>0</v>
+      </c>
+      <c r="F309" s="23">
+        <v>0</v>
+      </c>
+      <c r="G309" s="23">
+        <v>0</v>
+      </c>
+      <c r="H309" s="23"/>
+      <c r="I309" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="18">
+        <v>309</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="D310" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="E310" s="23">
+        <v>0</v>
+      </c>
+      <c r="F310" s="23">
+        <v>0</v>
+      </c>
+      <c r="G310" s="23">
+        <v>0</v>
+      </c>
+      <c r="H310" s="23"/>
+      <c r="I310" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="18">
+        <v>310</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="E311" s="23">
+        <v>0</v>
+      </c>
+      <c r="F311" s="23">
+        <v>0</v>
+      </c>
+      <c r="G311" s="23">
+        <v>0</v>
+      </c>
+      <c r="H311" s="23"/>
+      <c r="I311" s="22" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="18">
+        <v>311</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="D312" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="E312" s="23">
+        <v>0</v>
+      </c>
+      <c r="F312" s="23">
+        <v>0</v>
+      </c>
+      <c r="G312" s="23">
+        <v>0</v>
+      </c>
+      <c r="I312" s="22" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A313" s="18">
+        <v>312</v>
+      </c>
+      <c r="B313" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="D313" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="E313" s="23">
+        <v>0</v>
+      </c>
+      <c r="F313" s="23">
+        <v>0</v>
+      </c>
+      <c r="G313" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios/game_module_config.xlsx
+++ b/config_ios/game_module_config.xlsx
@@ -4498,7 +4498,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B251" sqref="B251"/>
+      <selection pane="bottomRight" activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11067,13 +11067,13 @@
         <v>753</v>
       </c>
       <c r="E259" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F259" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" s="22" t="s">
         <v>720</v>
